--- a/Carnesia/wwwroot/BulkProducts.xlsx
+++ b/Carnesia/wwwroot/BulkProducts.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ProductName</t>
   </si>
   <si>
     <t>ProductSKU</t>
-  </si>
-  <si>
-    <t>ProductCode</t>
   </si>
   <si>
     <t>ProductParentId</t>
@@ -96,12 +93,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,28 +108,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,7 +146,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,67 +161,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,9 +176,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,7 +206,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -255,7 +215,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,8 +457,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +498,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,205 +551,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,42 +1045,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="12.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="13.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="16.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="9.57142857142857" customWidth="1"/>
-    <col min="8" max="8" width="14.8571428571429" customWidth="1"/>
-    <col min="9" max="9" width="14.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="11.8571428571429" customWidth="1"/>
-    <col min="11" max="11" width="6.57142857142857" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.4285714285714" customWidth="1"/>
-    <col min="14" max="14" width="11.7142857142857" customWidth="1"/>
-    <col min="15" max="15" width="11.8571428571429" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="17" max="17" width="10.5714285714286" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="5.57142857142857" customWidth="1"/>
-    <col min="20" max="20" width="9.28571428571429" customWidth="1"/>
-    <col min="21" max="21" width="10.4285714285714" customWidth="1"/>
-    <col min="22" max="22" width="8.14285714285714" customWidth="1"/>
-    <col min="23" max="23" width="10.1428571428571" customWidth="1"/>
-    <col min="24" max="24" width="9.85714285714286" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
+    <col min="3" max="3" width="16.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="9.57142857142857" customWidth="1"/>
+    <col min="7" max="7" width="14.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="14.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="11.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="6.57142857142857" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.4285714285714" customWidth="1"/>
+    <col min="13" max="13" width="11.7142857142857" customWidth="1"/>
+    <col min="14" max="14" width="11.8571428571429" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="10.5714285714286" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="5.57142857142857" customWidth="1"/>
+    <col min="19" max="19" width="9.28571428571429" customWidth="1"/>
+    <col min="20" max="20" width="10.4285714285714" customWidth="1"/>
+    <col min="21" max="21" width="8.14285714285714" customWidth="1"/>
+    <col min="22" max="22" width="10.1428571428571" customWidth="1"/>
+    <col min="23" max="23" width="9.85714285714286" customWidth="1"/>
+    <col min="24" max="24" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:25">
+    <row r="1" s="1" customFormat="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,9 +1151,6 @@
       </c>
       <c r="X1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
